--- a/MagMapper/magnet_inhomogeneity.xlsx
+++ b/MagMapper/magnet_inhomogeneity.xlsx
@@ -2699,4 +2699,270 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A022865D5E36EC41BC771459BE016602" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fdada6caeea2114b6059a7b8b8ca7bb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="78177e6f-e60c-4a1f-ade0-9fce12e88bcb" xmlns:ns3="9cfab826-1cf5-423d-b1b4-afd502cd97ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ae7cb3202f833e480a98028ad7495f8" ns2:_="" ns3:_="">
+    <xsd:import namespace="78177e6f-e60c-4a1f-ade0-9fce12e88bcb"/>
+    <xsd:import namespace="9cfab826-1cf5-423d-b1b4-afd502cd97ad"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="78177e6f-e60c-4a1f-ade0-9fce12e88bcb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="537fece0-7c67-4b6d-b059-36af53aee6fc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9cfab826-1cf5-423d-b1b4-afd502cd97ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{a9801d4a-08fb-4064-94bd-87f4ae52f3e3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9cfab826-1cf5-423d-b1b4-afd502cd97ad">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A62D126B-B9F0-40E2-8413-282DED9681B7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6330181D-5BAA-4F7C-9203-423C38259E5C}"/>
 </file>
--- a/MagMapper/magnet_inhomogeneity.xlsx
+++ b/MagMapper/magnet_inhomogeneity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twlln\Documents\RRI\MagMapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB93FD7C-D5E8-4B5B-A780-C03E1B0EE335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02550CC7-D886-458B-B393-6680E41CF13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7AE821A4-6F0A-4EA6-8B5E-D689D741E4F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Magnet</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Inhomogeneity</t>
+  </si>
+  <si>
+    <t>Relative inhomgeniety</t>
   </si>
 </sst>
 </file>
@@ -2029,16 +2032,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>491009</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>194530</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2103,9 +2106,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2143,7 +2146,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2249,7 +2252,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2391,7 +2394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2401,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A1AA3-ED61-4AB8-8619-BC1E70D0FD8C}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2410,8 +2413,8 @@
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.21875" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" customWidth="1"/>
-    <col min="10" max="10" width="52.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
     <col min="11" max="11" width="10.88671875" customWidth="1"/>
     <col min="15" max="15" width="11.5546875" customWidth="1"/>
     <col min="16" max="16" width="3.5546875" customWidth="1"/>
@@ -2429,6 +2432,9 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2450,6 +2456,10 @@
       <c r="G2">
         <v>0.18</v>
       </c>
+      <c r="I2">
+        <f>F2/250*100</f>
+        <v>2.2681803999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3">
@@ -2468,6 +2478,10 @@
       <c r="G3">
         <v>0.18</v>
       </c>
+      <c r="I3">
+        <f>F3/250*100</f>
+        <v>0.64722360000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4">
@@ -2486,6 +2500,10 @@
       <c r="G4">
         <v>0.18</v>
       </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I15" si="1">F4/250*100</f>
+        <v>1.0388236</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5">
@@ -2504,6 +2522,10 @@
       <c r="G5">
         <v>0.18</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1.8403136</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6">
@@ -2522,6 +2544,10 @@
       <c r="G6">
         <v>0.18</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.3728156</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7">
@@ -2540,6 +2566,10 @@
       <c r="G7">
         <v>0.18</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>2.3695059999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8">
@@ -2558,6 +2588,10 @@
       <c r="G8">
         <v>0.18</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.92005920000000008</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C9">
@@ -2576,6 +2610,10 @@
       <c r="G9">
         <v>0.18</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.9611259999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10">
@@ -2594,6 +2632,10 @@
       <c r="G10">
         <v>0.18</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.61404600000000009</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11">
@@ -2612,6 +2654,10 @@
       <c r="G11">
         <v>0.18</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.49608160000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C12">
@@ -2630,6 +2676,10 @@
       <c r="G12">
         <v>0.18</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.0289704</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C13">
@@ -2648,6 +2698,10 @@
       <c r="G13">
         <v>0.18</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.6166275999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
@@ -2667,7 +2721,10 @@
         <v>0.18</v>
       </c>
       <c r="H14"/>
-      <c r="I14"/>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.6448236000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15">
@@ -2685,6 +2742,10 @@
       </c>
       <c r="G15">
         <v>0.18</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.5793804000000002</v>
       </c>
     </row>
     <row r="30" spans="15:17" x14ac:dyDescent="0.3">
@@ -2960,9 +3021,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A62D126B-B9F0-40E2-8413-282DED9681B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A62D126B-B9F0-40E2-8413-282DED9681B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="78177e6f-e60c-4a1f-ade0-9fce12e88bcb"/>
+    <ds:schemaRef ds:uri="9cfab826-1cf5-423d-b1b4-afd502cd97ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6330181D-5BAA-4F7C-9203-423C38259E5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6330181D-5BAA-4F7C-9203-423C38259E5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>